--- a/Rock Paper Scissors Test Plan.xlsx
+++ b/Rock Paper Scissors Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://highburygroup-my.sharepoint.com/personal/501242_students_copc_ac_uk/Documents/My COPC Files/My Documents/IT Level 4 (Foundation Degree)/Will's Work/WEBAPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_F25DC773A252ABDACC1048D9711B4D105BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3FC66C6-719A-4D06-B111-3422568930BB}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC1048D9711B4D105BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F56F2F-A347-458D-B097-973966AB1A0C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Gameplay Logic</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>An issue i have found is that cpu sometimes is blank</t>
+  </si>
+  <si>
+    <t>Make the game look more detailed</t>
+  </si>
+  <si>
+    <t>Rock-Paper-Scissors Triangle</t>
+  </si>
+  <si>
+    <t>Car-Gun-Box Triangle</t>
+  </si>
+  <si>
+    <t>Ensure everything performs smoothly</t>
+  </si>
+  <si>
+    <t>The website is compatible with mobile devices.</t>
+  </si>
+  <si>
+    <t>The game can be used by anyone who has bad eyesight or colour blindness.</t>
   </si>
 </sst>
 </file>
@@ -122,12 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,6 +288,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -537,37 +557,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" customWidth="1"/>
     <col min="6" max="6" width="78.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -589,7 +609,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -604,15 +624,21 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -624,7 +650,9 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -645,7 +673,9 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
@@ -662,7 +692,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
